--- a/biology/Botanique/Trichomanes/Trichomanes.xlsx
+++ b/biology/Botanique/Trichomanes/Trichomanes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichomanes est un genre de fougères de la famille des Hyménophyllacées. 
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un genre très polymorphique : la caractéristique principale morphologique des espèces du genre, mais non spécifique, est une indusie tubulaire.
-Les espèces du genre Trichomanes ont quasiment toutes 32 paires de chromosomes (quelques espèces pourraient en avoir 36[1]).
+Les espèces du genre Trichomanes ont quasiment toutes 32 paires de chromosomes (quelques espèces pourraient en avoir 36).
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Quasiment toutes les espèces sont originaires du Nouveau Monde, en zone tropicale.
 </t>
@@ -576,17 +592,96 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Historique du genre
-Carl von Linné crée le genre en 1753.
-Dès 1793, James Edward Smith sépare cet unique genre en deux en créant le genre Hymenophyllum, le genre Trichomanes rassemblant les espèces à indusie généralement tubulaire, mais en fait toutes les espèces de la famille n'appartenant pas au genre Hymenophyllum. La famille des Hyménophyllacées[2] se décompose ainsi, au début du XIXe siècle en deux genres d'un nombre à peu près équivalent d'espèces.
+          <t>Historique du genre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carl von Linné crée le genre en 1753.
+Dès 1793, James Edward Smith sépare cet unique genre en deux en créant le genre Hymenophyllum, le genre Trichomanes rassemblant les espèces à indusie généralement tubulaire, mais en fait toutes les espèces de la famille n'appartenant pas au genre Hymenophyllum. La famille des Hyménophyllacées se décompose ainsi, au début du XIXe siècle en deux genres d'un nombre à peu près équivalent d'espèces.
 En 1824, Jean-Baptiste Bory de Saint-Vincent crée deux nouveaux genres : le genre Feea et le genre Hymenostachys. Cette date marque le début de la diversification des genres reconnus de la famille, que successivement et principalement Nicaise Augustin Desvaux, Karel Bořivoj Presl, Roelof Benjamin van den Bosch et Karl Anton Eugen Prantl vont enrichir et surtout réorganiser, cette réorganisation affectant quasiment toujours le genre Trichomanes.
 Au début du XXe siècle, Carl Frederik Albert Christensen revient à une division principale en deux genres - Trichomanes et Hymenophyllum. Mais inversement la réorganisation de la famille par Edwin Bingham Copeland conduit en 1938 aux maximum de 39 genres, cette diversification concernant très majoritairement le genre Trichomanes, très réduit après cette réorganisation.
-En 1968, Conrad Vernon Morton revient à une famille restreinte à six genres, des niveaux inférieurs étant introduits - sous-genres et sections -. Le genre Trichomanes compte alors huit sous-genres[3].
-Enfin, en 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito, sur la base d'études de phylogénétique moléculaire, réorganisent la famille en 9 genres : le genre Trichomanes est restreint à 5 sous-genres[4].
-Liste des espèces selon leur sous-genre
-La liste des espèces a été constituée en premier à partir du document de Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito, et a été complétée des indications des index IPNI[5] et Tropicos[6] à la date de juin 2010. Lorsque ce indications n'ont pas été suffisantes, en particulier pour les synonymies, elles ont été recherchées dans les documents et index historiques comme ceux de Conrad Vernon Morton, Carl Frederik Albert Christensen (en général retranscrit par l'IPNI) et tout autre document disponible, en particulier sur le site de la librairie numérique sur la biodiversité[7].
-Sous-genre Trichomanes
-Ce sous-genre dispose de toutes les caractéristiques du genre : un rhizome plus ou moins long, rampant, avec des racines nombreuses et robustes, des frondes relativement rapprochées, avec parfois de fausses nervures perpendiculaires aux vraies, des sores à indusie tubulaire et généralement une longue columelle.
+En 1968, Conrad Vernon Morton revient à une famille restreinte à six genres, des niveaux inférieurs étant introduits - sous-genres et sections -. Le genre Trichomanes compte alors huit sous-genres.
+Enfin, en 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito, sur la base d'études de phylogénétique moléculaire, réorganisent la famille en 9 genres : le genre Trichomanes est restreint à 5 sous-genres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Trichomanes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trichomanes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique et nomenclature</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces selon leur sous-genre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces a été constituée en premier à partir du document de Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito, et a été complétée des indications des index IPNI et Tropicos à la date de juin 2010. Lorsque ce indications n'ont pas été suffisantes, en particulier pour les synonymies, elles ont été recherchées dans les documents et index historiques comme ceux de Conrad Vernon Morton, Carl Frederik Albert Christensen (en général retranscrit par l'IPNI) et tout autre document disponible, en particulier sur le site de la librairie numérique sur la biodiversité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Trichomanes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trichomanes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique et nomenclature</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces selon leur sous-genre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Sous-genre Trichomanes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sous-genre dispose de toutes les caractéristiques du genre : un rhizome plus ou moins long, rampant, avec des racines nombreuses et robustes, des frondes relativement rapprochées, avec parfois de fausses nervures perpendiculaires aux vraies, des sores à indusie tubulaire et généralement une longue columelle.
 			Trichommanes alatum Sw.
 			Trichomanes arbuscula Desv.
 			Trichomanes attenuatum Hook.
@@ -599,7 +694,7 @@
 			Trichomanes pinnatum Hedw.
 			Trichomanes scandens L.
 			Trichomanes spruceanum Hook.
-Trichomanes abruptum (Fée) Christ (1905) - Nord de l'Amérique du Sud - Synonyme : Neurophyllum abruptum Fée - Synonyme possible : Trichomanes hostmannianum (Klotzsch) Kunze [8]
+Trichomanes abruptum (Fée) Christ (1905) - Nord de l'Amérique du Sud - Synonyme : Neurophyllum abruptum Fée - Synonyme possible : Trichomanes hostmannianum (Klotzsch) Kunze 
 Trichomanes accedens C.Presl (1849) - Amérique tropicale - Synonyme : Ptilophyllum accedens (C.Presl) Prantl
 Trichomanes accedens var. trinitense (Domin) Domin (1929) - Trinité (Trinité et Tobago) - Synonyme : Trichomanes trinitense Domin
 Trichomanes alatum Sw. (1801) - Amérique tropicale (Caraïbe et Amérique du Sud)
@@ -704,8 +799,47 @@
 Trichomanes vandenboschii P.G.Windisch (1988) - Amérique du sud tropicale (Amazonie péruvienne et vénézuélienne, Surinam) (Remplace les homonymes illégaux successifs Trichomanes crispum Mett. (homonyme de Trichomanes crispum L.) et Trichomanes undulatum Bosch (homonyme de Trichomanes undulatum Sw.))
 Trichomanes vaupesensis Lellinger (1984) - Colombie
 Trichomanes vittaria DC. ex Poir. (1808) - Guyana, Amazonie (Synonymes : Trichomanes floribundum  var. vittaria (DC. ex Poir.) Splitg., Trichomanes pinnatum  var. vittaria (DC. ex Poir.) Hook. &amp; Baker)
-Sous-genre Feea
-Ce sous-genre a les caractéristiques suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Trichomanes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trichomanes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique et nomenclature</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des espèces selon leur sous-genre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sous-genre Feea</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ce sous-genre a les caractéristiques suivantes :
 une répartition limitée au nouveau monde ;
 un rhizome robuste, épais, à port cespiteux et dont les racines à la base sont nombreuses et robustes ;
 les frondes sont marquées par un dimorphisme (sauf pour Trichomanes mougeoti), les frondes fertiles étant habituellement simples et au limbe presque réduit aux nervures et d'une épaisseur de plus d'une cellule, les frondes stériles étant divisées une fois ;
@@ -723,9 +857,47 @@
 Trichomanes platyrachis Domin (1929) - Jamaïque
 Trichomanes spicatum Hedw. ex Hook. (1805) - Caraïbes, nord de l'Amérique du Sud
 Trichomanes spicisorum Desv. (1811) - Caraïbes
-Trichomanes trollii Bergdolt (1933) - Bolivie - Synonymes : Feea trollii (Bergdolt) Vareschi, Hymenostachys trollii (Bergdolt) Pic.Serm.
-Sous-genre Davalliopsis
-Ce sous-genre a les caractéristiques suivantes :
+Trichomanes trollii Bergdolt (1933) - Bolivie - Synonymes : Feea trollii (Bergdolt) Vareschi, Hymenostachys trollii (Bergdolt) Pic.Serm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Trichomanes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trichomanes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique et nomenclature</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des espèces selon leur sous-genre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Sous-genre Davalliopsis</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ce sous-genre a les caractéristiques suivantes :
 un rhizome cespiteux, densément couvert de poils foncés, aux racines robustes et nombreuses
 un limbe divisé trois à quatre fois, à nervuration anadrome (il s'agit du point caractéristique du sous-genre)
 pas de fausses nervures
@@ -740,9 +912,47 @@
 Trichomanes opacum Bosch (1861) - Pérou
 Trichomanes prieurii Kunze (1837) - Brésil, Guyane, Guyana (Signalé par l'IPNI comme synonyme possible de Trichomanes elegans Rich.)
 Trichomanes resinosum R.C.Moran (2000) - Guyana, Venezuela, amont de la rivière Mazaruni, karowtipu Guyana
-Trichomanes weddellii Bosch (1861) - Synonyme : Trichomanes elegans Rich. var. weddellii (Bosch) Hieron.
-Sous-genre Lacostea
-Ce sous-genre présente un rhizome long et rampant, assez épais, fréquemment densément couvert de poils foncés, avec des racines nombreuses et robustes dans la partie terrestre et absentes dans la partie grimpante. Le pétiole des frondes est court. La bordure du limbe, segmenté une fois, est glabre. Ces fougères, par leur robustesse, revêtent un aspect de lianes. Elles sont présentes uniquement en Amérique tropicale.
+Trichomanes weddellii Bosch (1861) - Synonyme : Trichomanes elegans Rich. var. weddellii (Bosch) Hieron.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Trichomanes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trichomanes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique et nomenclature</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Liste des espèces selon leur sous-genre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Sous-genre Lacostea</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Ce sous-genre présente un rhizome long et rampant, assez épais, fréquemment densément couvert de poils foncés, avec des racines nombreuses et robustes dans la partie terrestre et absentes dans la partie grimpante. Le pétiole des frondes est court. La bordure du limbe, segmenté une fois, est glabre. Ces fougères, par leur robustesse, revêtent un aspect de lianes. Elles sont présentes uniquement en Amérique tropicale.
 			Trichomanes ankersii C.Parker ex Hook. &amp; Grev.
 			Trichomanes pedicellatum Desv.
 Trichomanes ankersii C.Parker ex Hook. &amp; Grev. (1831) - Amérique tropicale dont Guyane (Synonyme : Lacostea ankersii (C.Parker ex Hook. &amp; Grev.) Prantl - synonyme possible signalé par l'index Tropicos : Trichomanes guianense J.W.Sturm)
@@ -755,15 +965,88 @@
 Trichomanes tanaicum J.W.Sturm (1859) - Amérique du Sud tropicale dont Guyane (Synonymes : Lacostea tanaica (J.W.Sturm) Prantl, Trichomanes ankersii var. tanaicum (J.W.Sturm) Sadeb.)
 Trichomanes torotumani Vareschi (1966) - Venezuela
 Trichomanes tuerckheimii Christ (1905) - Guatemala (Synonyme : Lacostea tuerckheimii (Christ) Pic.Serm.)
-Trichomanes volubile Vell. (1831) (Signalé par l'IPNI comme synonyme de Trichomanes pedicellatum Desv.)
-Sous-genre indéterminé
-Trichomanes adscendens Kunze (1845) - Martinique. (Synonymes possibles : Trichomanes accedens C.Presl, Ptilophyllum accedens Prantl Reconnu comme espèce différente de Trichomanes accedens par C.V.Morton et A. Ebihara, J.-Y. Dubuisson, K.Iwatsuk et S. Hennequin, mais à position incertaine pour ces derniers)
+Trichomanes volubile Vell. (1831) (Signalé par l'IPNI comme synonyme de Trichomanes pedicellatum Desv.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Trichomanes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trichomanes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique et nomenclature</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Liste des espèces selon leur sous-genre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Sous-genre indéterminé</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Trichomanes adscendens Kunze (1845) - Martinique. (Synonymes possibles : Trichomanes accedens C.Presl, Ptilophyllum accedens Prantl Reconnu comme espèce différente de Trichomanes accedens par C.V.Morton et A. Ebihara, J.-Y. Dubuisson, K.Iwatsuk et S. Hennequin, mais à position incertaine pour ces derniers)
 Trichomanes boivinii Bosch (1859) - Madagascar (Synonymes : Trichomanes latipinnulata Bonap., Trichomanes cornutum C.Chr.)
 Trichomanes bryoides Goldm. (1843) - Brésil
 Trichomanes heterophyllum Poir. (1808) - Amérique tropicale (Venezuela)
 Trichomanes madagascariense (Bosch) T.Moore (1861) - Madagascar (Synonyme : Cephalomanes madagascariense Bosch)
-Trichomanes ribae Pacheco (2002) - Panama, Costa Rica
-Liste des espèces synonymes ou classées ailleurs
+Trichomanes ribae Pacheco (2002) - Panama, Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Trichomanes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trichomanes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Systématique et nomenclature</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Liste des espèces synonymes ou classées ailleurs</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Trichomanes abrotanifolium Bosch (1859) - Brésil - Voir genre Vandenboschia (reclassement suggéré)
 Trichomanes accedens var. procerum (Fée) Domin (1929) - Pérou - Voir Hymenophyllum subgen. Sphaerocionium - (synonymes : Trichomanes procerum Fée, Trichomanes crispum var. procerum (Fée) Jenman)
 Trichomanes achilleifolium Bory (1810) - Madagascar, Mascareignes - Voir Abrodictyum stylosum (Poir.) J.P.Roux (synonyme : Trichomanes stylosum Poir.)
@@ -794,7 +1077,7 @@
 Trichomanes ambiguum Mart. (1840) - Voir Polyphlebium pyxidiferum (L.) Ebihara &amp; Dubuisson (synonyme Trichomanes pyxidiferum var. diaphanum)
 Trichomanes ambongoense Bonap (1920) - Voir Crepidomanes mannii (Hook.) J.P.Roux  (synonyme : Trichomanes mannii Hook.)
 Trichomanes ampliatum Mett. (1899) - Voir Hymenophyllum digitatum (Sw.) Fosberg (synonyme : Trichomanes digitatum Sw.)
-Trichomanes anceps Wall. (1828) - Indochine - Voir Vandenboschia anceps (Wall.) Subh.Chandra &amp; S.Kaur (synonyme : Trichomanes radicans var. anceps  (Wall.) Clarke)[9]
+Trichomanes anceps Wall. (1828) - Indochine - Voir Vandenboschia anceps (Wall.) Subh.Chandra &amp; S.Kaur (synonyme : Trichomanes radicans var. anceps  (Wall.) Clarke)
 Trichomanes andrewsii Newm. (1844) - Voir Vandenboschia radicans (Sw.) Copel. (synonyme : Trichomanes radicans Sw.)
 Trichomanes angustatum Carmich. (1819) - Tristan d'Acunha. - Voir Polyphlebium angustatum (Carmich.) Ebihara &amp; Dubuisson (synonymes : Trichomanes tenerum Spreng., Vandenboschia angustata  (Carmich.) Copel.)
 Trichomanes angustatum var. subexsertum (Bosch) C.Chr. (1926) - Brésil - Voir Polyphlebium angustatum (Carmich.) Ebihara &amp; Dubuisson (synonyme : Trichomanes subexsertum Bosch)
@@ -837,7 +1120,142 @@
 Trichomanes bifidum C.Presl (1844) - Malaisie - voir Abrodictyum idoneum (C.V.Morton) Ebihara &amp; K.Iwats.
 Trichomanes bifolium Blume (1828) - Voir Crepidomanes minutum (Blume) K.Iwats. (synonyme : Crepidomanes proliferum var. minutum (Blume) C.A.Hameed  ex Easa, Trichomanes minutum Blume)
 Trichomanes bilabiatum Nees &amp; Blume (1823) - Malaisie, Mélanésie - Voir Crepidomanes bilabiatum (Nees &amp; Blume) Copel. (synonymes : Didymoglossum bilabiatum (Nees &amp; Blume) Bosch, Trichomanes bilingue Hook., Trichomanes melanorhizon Hook. ; signalé aussi par l'IPNI comme synonyme de Trichomanes brevipes Baker)
-Trichomanes bilingue Hook. (1841) - Malaisie, Mélan</t>
+Trichomanes bilingue Hook. (1841) - Malaisie, Mélanésie - Voir Crepidomanes bilabiatum (Nees &amp; Blume) Copel. (synonyme : Trichomanes bilabiatum Nees &amp; Blume)
+Trichomanes bilobatum Alderw. (1915) - Voir Crepidomanes bilobatum (Alderw.) Copel. (synonyme possible : Trichomanes bilabiatum Nees &amp; Blume)
+Trichomanes bimarginatum (Bosch) Bosch (1861) - Taïwan, Inde du sud, Ceylan. Malaisie - Voir Didymoglossum bimarginatum (Bosch) Ebihara &amp; K.Iwats. (synonymes : Microgonium bimarginatum Bosch, Hemiphlebium bimarginatum (Bosch) Luerss. - Remplace l'homonyme Trichomanes muscoides Brack.
+Trichomanes bipunctatum Poir. (1808) - Madagascar - Voir Crepidomanes bipunctatum (Poir.) Copel. (synonymes : Didymoglossum anomalum Bosch, Didymoglossum bipunctatum (Poir.) E.Fourn., Hymenophyllum filicula Bory ex Willd., Taschneria filicula (Bory ex Willd.) C.Presl, Trichomanes capillatum Taschner, Trichomanes dilatatum Kuhn (non G.Forst.), Trichomanes filicula (Bory ex Willd.) Bory)
+Trichomanes bipunctatum var. insigne (Bosch) Bedd. (1883) - Inde, Chine, Tonkin. - Voir Trichomanes insigne Bosch
+Trichomanes bipunctatum var. latealatum (Bosch) Alderw. (1908) - Asie, Australie, Polynésie, ouest et sud de l'Afrique - Voir Crepidomanes latealatum (Bosch) Copel. (synonymes : Trichomanes latealatum (Bosch) Christ, Didymoglossum latealatum Bosch)
+Trichomanes bipunctatum var. plicatum (Bosch) Bedd. (1883) - Asie tropicale - Voir Crepidomanes plicatum (Bosch) Ching (synonymes : Didymoglossum plicatum Bosch, Trichomanes plicatum (Bosch) Bedd.)
+Trichomanes bipunctatum var. venulosa Rosenst. (1915) - Nouvelle-Guinée - Voir Crepidomanes bipunctatum var. venulosum (Rosenst.) Croxall (synonymes : Trichomanes venulosum (Rosenst.) Copel., Crepidomanes venulosum (Rosenst.) Copel.)
+Trichomanes birmanicum Bedd. (1876) - Asie tropicale (Chine méridionale, Cambodge, Japon, Laos, Myanmar, Thaïlande, Vietnam, Corée du Sud) - Voir Vandenboschia birmanica (Bedd.) Ching (synonymes : Crepidomanes birmanicum  (Bedd.) K.Iwats., Trichomanes radicans var. birmanicum (Bedd.) C.Chr. -  Synonymie signalée par l'IPNI avec Trichomanes liu-kiuense Yabe
+Trichomanes bivalve G.Forst. (1786) - Voir Hymenophyllum bivalve (G.Forst.) Sw.
+Trichomanes blepharistomum Copel. (1933) - Philippines - Voir Crepidomanes thysanostomum (Makino) Ebihara &amp; K.Iwats. (synonymes : Nesopteris blepharistoma (Copel.) Tagawa, Nesopteris thysanostoma  var. blepharistoma (Copel.) Seriz.)
+Trichomanes blumei Hassk. (1857) -  Voir Hymenophyllum digitatum (Sw.) Fosberg (synonyme : Trichomanes digitatum Sw.)
+Trichomanes bojeri Hook. &amp; Grev. (1829) - Voir Didymoglossum cuspidatum (Willd.) Ebihara &amp; Dubuisson (synonyme : Trichomanes cuspidatum Willd.)
+Trichomanes bonapartei C.Chr. (1920) - Madagascar - Voir Crepidomanes bonapartei (C.Chr.) J.P.Roux
+Trichomanes bonincola Nakai (1926) - Archipel d'Ogasawara - Voir Crepidomanes minutum (Blume) K.Iwats. (synonyme : Gonocormus bonincola  (Nakai) Tagawa)
+Trichomanes boninense Koidz. (1924) - Archipel d'Ogasawara - Voir Crepidomanes boninense (Koidz.) Tagawa
+Trichomanes borbonicum Bosch (1861) - Afrique centrale et du sud, Madagascar - Voir Polyphlebium borbonicum (Bosch) Ebihara &amp; Dubuisson (synonymes : Crepidomanes borbonicum (Bosch) J.P.Roux, Vandenboschia borbonica (Bosch) G.Kunkel)
+Trichomanes borneense Alderw. (1915) - Bornéo - Voir Cephalomanes javanicum (Blume) K.Iwats. (synonyme : Trichomanes javanicum Blume)
+Trichomanes boryanum Kunze (1847) - Polynésie - Voir Cephalomanes atrovirens subsp. boryanum (Kunze) K.Iwats. Renommage de l'homonyme Trichomanes alatum Bory - (synonymes : Trichomanes australicum Copel., Cephalomanes boryanum (Kunze) Bosch, Cephalomanes wilkesii Bosch
+Trichomanes boschianum J.W.Sturm (1861) - Amérique du Nord (États Unis) - Voir Vandenboschia boschiana (J.W.Sturm) Ebihara &amp; K.Iwats.
+Trichomanes brachyblastos Mett. (1865) - Pérou - Voir genre Vandenboschia
+Trichomanes brachypus Kunze (1834) - Voir Trichomanes pedicellatum Desv. (synonymes : Lacostea brachypus (Kunze) Prantl, Lacostea pedicellata (Desv.) Prantl, Trichomanes subsessile Splitg.)
+Trichomanes brachypus var. tanaicum (Hook.) Hook. &amp; Baker (1867) - voir Trichomanes tanaicum Hook. (synonyme : Trichomanes ankersii var. tanaicum (Hook.) Sadeb.)
+Trichomanes bradei Christ (1909) - Costa Rica (Amérique centrale et du sud) - Voir  Polyphlebium diaphanum (Kunth) Ebihara &amp; Dubuisson (synonyme : Trichomanes diaphanum Kunth)
+Trichomanes brasiliense Desv. (1827) - Voir Polyphlebium pyxidiferum (L.) Ebihara &amp; Dubuisson (synonymes : Trichomanes schiedeanum var. brazilianum (Desv.) Fée, Trichomanes pyxidiferum  var. brasiliense (Desv.) Luetzelb.
+Trichomanes braunii Bosch (1856) - Java - Voir Hymenophyllum pallidum (Blume) Ebihara &amp; K.Iwats.
+Trichomanes brevipes (C.Presl) Baker (1867) - Philippines, Bornéo - Voir Crepidomanes brevipes (C.Presl) Copel. (synonymes : Didymoglossum brevipes C.Presl, Trichomanes melanorhizon Hook. Didymoglossum anomalum Bosch ; signalé par l'IPNI comme synonyme possible de Trichomanes bilabiatum Nees &amp; Blume)
+Trichomanes brevisetum R.Br. (1813) - Voir Vandenboschia radicans (Sw.) Copel. (synonyme : Trichomanes radicans Sw.)
+Trichomanes brooksii Copel. (1917) - Bornéo - Voir genre Crepidomanes subgen. Crepidomanes section Gonocormus
+Trichomanes bucinatum Mickel &amp; Beitel (1988) - Oaxaca (Mexique) - Voir genre Didymoglossum subgen. Didymoglossum
+Trichomanes caespifrons C.Chr. (1936) - Fidji - Voir genre Abrodictyum
+Trichomanes caespitosum (Gaudich.) Hook. (1846) - Sud de l'Amérique du Sud, Malouines - Voir Hymenophyllum caespitosum Gaudich. (synonyme Serpyllopsis caespitosa var. typica C.Chr.)
+Trichomanes caespitosum var. elongatum Hook. (1845) - Chili - Voir Hymenophyllum caespitosum Gaudich. (synonyme : Serpyllopsis caespitosa var. elongata C.Chr.)
+Trichomanes caluffii C.Sánchez (2001) - Cuba, Caraïbe - Voir genre Didymoglossum
+Trichomanes calvescens Bosch (1863) - Nouvelle-Galles du Sud - Voir Hymenophyllum digitatum (Sw.) Fosberg (synonyme : Trichomanes digitatum var. calvescens (Bosch) Domin)
+Trichomanes calyculatum (Copel.) C.V.Morton (1968) - Sud-est de la Polynésie - Voir Callistopteris calyculata Copel.
+Trichomanes campanulatum Roxb. (1829) - Chittagong - Voir Crepidomanes campanulatum (Roxb.) Panigrahi &amp; Sarn.Singh
+Trichomanes canariense L. (1753) - Voir Davallia canariensis (L.) Sm. (Davalliacée)
+Trichomanes capillaceum L. (1753) - Caraïbe, Amérique tropicale - Voir Polyphlebium capillaceum (L.) Ebihara &amp; Dubuisson (synonymes : Vandenboschia capillacea (L.) Copel., Trichomanes tenellum Hedw., Trichomanes schiedeanum Müll.Berol ; l'index Tropicos signale cette espèce comme synonyme de Trichomanes angustatum Carmich., Trichomanes angustissimum C.Presl et Trichomanes schiedeanum Müll.Berol.)
+Trichomanes capillaceum var. cocos (Christ) L.D.Gómez (1975) - Îles Cocos, Costa Rica (Amérique centrale) - Voir Polyphlebium capillaceum (L.) Ebihara &amp; Dubuisson (synonyme : Trichomanes cocos Christ)
+Trichomanes capillaceum var. subclavatum Christ (1901) - Costa Rica (Amérique centrale et du sud) - Voir Polyphlebium capillaceum (L.) Ebihara &amp; Dubuisson
+Trichomanes capillatum Taschner (1843) - Voir Crepidomanes bipunctatum (Poir.) Copel. (synonymes : Didymoglossum anomalum Bosch, Didymoglossum bipunctatum (Poir.) E.Fourn., Hymenophyllum filicula Bory ex Willd., Taschneria filicula (Bory ex Willd.) C.Presl, Trichomanes bipunctatum Poir., Trichomanes dilatatum Kuhn (non G.Forst.), Trichomanes filicula (Bory ex Willd.) Bory)
+Trichomanes cartilagineum Vieill. &amp; Pancher (1861) - Polynésie - Voir Abrodictyum dentatum (Bosch) Ebihara &amp; K.Iwats.
+Trichomanes caruifolium Roxb. (1844) - Île du Prince-de-Galles - Voir Vandenboschia sp ? Espèce absente de l'index Tropicos et chez C.V.Morton
+Trichomanes caudatum Brack. (1854) - Nouvelle-Galles du Sud, Queensland, Polynésie (Tahiti) - Voir Abrodictyum caudatum (Brack.) Ebihara &amp; K.Iwats. (synonymes : Cephalomanes caudatum (Brack.) Bostock, Macroglena caudata (Brack.) Copel., Trichomanes milnei Bosch)
+Trichomanes cavifolium Müll.Berol. (1854) - Mexique - Voir Polyphlebium pyxidiferum  (L.) Ebihara &amp; Dubuisson (synonyme : Trichomanes pyxidiferum  L.)
+Trichomanes cellulosum Klotzsch (1844) - Bassin amazonien - Voir Abrodictyum cellulosum (Klotzsch) Ebihara &amp; Dubuisson (synonymes : Cephalomanes gemmatum (J.Sm.) K.Iwats., Selenodesmium cellulosum (Klotzsch) Á.Löve &amp; D.Löve, Trichomanes filiforme J.W.Sturm,  Trichomanes foeniculaceum Hook., Trichomanes gemmatum J.Sm. ex Hook. &amp; Baker)
+Trichomanes chaerophylloides Poir. (1808) - Voir Davallia chaerophylloides (Poir.) Steud.
+Trichomanes chamaedrys Taton (1946) - Congo - Voir Didymoglossum chamaedrys (Taton) J.P.Roux (synonyme : Crepidomanes chamaedrys (Taton) G.Kunkel)
+Trichomanes chevalieri Christ (1908) - Afrique occidentale tropicale (Obangi) - Voir Crepidomanes chevalieri (Christ) Ebihara &amp; Dubuisson
+Trichomanes chinense L. (1753) - Voir Sphenomeris chinensis (L.) Maxon
+Trichomanes christii Copel. (1906) - Malaisie, Luzon, Bornéo - Voir Crepidomanes christii (Copel.) Copel. (synonymes : Trichomanes microlirion Copel., Trichomanes recedens Rosenst.) (Nb : Trichomanes rosenstockii Alderw. bien que signalé comme synonyme par l'IPNI, est synonyme de Cephalomanes singaporianum Bosch).
+Trichomanes ciliatum Sw. (1788) - Jamaïque - Voir Hymenophyllum ciliatum (Sw.) Sw.
+Trichomanes clarenceanum F.Ballard (1937) - Voir Crepidomanes clarenceanum (F.Ballard) Pic.Serm.
+Trichomanes clathratum Tagawa (1939) - Taïwan - Voir Abrodictyum clathratum (Tagawa) Ebihara &amp; K.Iwats.
+Trichomanes clavatum Sw. (1788) - Jamaïque (Caraïbe et Amérique du Sud) - Voir Hymenophyllum polyanthos (Sw.) Sw. (synonymes : Hymenophyllum breutelii (C.Presl) Bosch, Hymenophyllum grevilleanum C.Presl, Mecodium polyanthos (Sw.) Copel., Trichomanes polyanthos Sw.)
+Trichomanes cochinchinense Poir. (1808) - Voir Lygodium scandens (L.) Sw.
+Trichomanes cocos Christ (1904) - Îles Cocos, Costa Rica (Amérique centrale) - Voir Polyphlebium capillaceum (L.) Ebihara &amp; Dubuisson (synonyme : Trichomanes capillaceum var. cocos (Christ) L.D.Gómez)
+Trichomanes colensoi Hook.f. in Hook. (1854) - Nouvelle-Zélande - Voir Polyphlebium colensoi (Hook.f.) Ebihara &amp; Dubuisson (synonyme : Vandenboschia colensoi (Hook.f) Copel.
+Trichomanes collariatum Bosch (1859) - Amérique tropicale - Voir Vandenboschia collariata (Bosch) Ebihara &amp; Iwats.
+Trichomanes collariatum var. alvaradoi A.Rojas (2004) - Costa Rica (Amérique centrale et du sud) - Voir Vandenboschia collariata (Bosch) Ebihara &amp; Iwats.
+Trichomanes compactum Alderw. (1924) - Nouvelle-Guinée - Voir genre Abrodictyum subgen. Abrodictyum
+Trichomanes compressum Desv. (1811) - Inde - Voir Abrodictyum rigidum (Sw.) Ebihara &amp; Dubuisson (synonymes : Trichomanes bifidum Vent. ex Willd., Trichomanes daucoides C.Presl, Trichomanes dregei Bosch, Trichomanes firmulum C.Presl, Trichomanes krugii Christ, Trichomanes mandioccanum Raddi, Trichomanes marginatum Mett., Trichomanes rigidum Sw.)
+Trichomanes concinnum Mett. (1868) - Tahiti. - Voir genre Crepidomanes subgen. Crepidomanes section Crepidium
+Trichomanes contiguum G.Forst. (1786) - Voir Davallia contigua (G.Forst.) Spreng.
+Trichomanes corcovadense Bosch (1859) - Brésil - Voir genre Vandenboschia
+Trichomanes cordifolium (Fée) Alston (1932) - Martinique (Caraïbe), Amérique tropicale - Voir Didymoglossum cordifolium Fée
+Trichomanes coriaceum Kunze (1834) -  Voir Trichomanes arbuscula Desv. (synonymes : Ptilophyllum bancroftii (Hook. &amp; Grev.) Prantl, Trichomanes bancroftii Hook. &amp; grev., Trichomanes polyphlebius V.Marcano, Trigonophyllum arbusculum (Desv.) Pic.Serm.)
+Trichomanes cormophyllum Kaulf. (1824) - Voir Cyathea capensis Sm.
+Trichomanes cornutum C.Chr. (1920) - Voir Trichomanes boivini Bosch
+Trichomanes corticola Bedd. (1863) - Voir Hymenophyllum corticola Hook. (synonyme : Trichomanes digitatum var. corticola (Hook.) Domin)
+Trichomanes craspedoneurum Copel. (1912) - Philippines - Voir genre Didymoglossum subgen. microgonium
+Trichomanes crassum Copel. (1933) - Philippines - Voir Cephalomanes crassum (Copel) M.G.Price
+Trichomanes crispulum Bosch (1863) - Caraïbe - Voir Didymoglossum crispulum (Bosch) Fée
+Trichomanes crispum Mett. (1851) - Amérique du sud tropical (Amazonie péruvienne et vénésuélienne, Surinam - Voir Trichomanes vandenboschii P.G.Windisch - Homonyme de Trichomanes crispum L. remplacé illégalement par Trichomanes undulatum Bosch puis par Trichomanes vandenboschii P.G. Windisch
+Trichomanes crispum f. remotum (Fée) Domin (1929) - Guadeloupe - Voir Trichomanes crispum  var. remotum Fée
+Trichomanes crispum subsp. pellucens (Kunze) Hassl. (1928) - Amérique tropicale - Voir Trichomanes pellucens Kunze
+Trichomanes crispum var. plumosa Hieron. (1906) - Voir Trichomanes plumosum Kunze
+Trichomanes crispum var. procerum (Fée) Jenman (1898) - Voir genre Hymenophyllum subgen. Sphaerocionium (synonymes : Trichomanes procerum Fée, Trichomanes accedens var. procerum (Fée) Domin)
+Trichomanes cristatum var. crispum (L.) Vareschi (1969) - Amérique tropicale - Voir Trichomanes crispum L.
+Trichomanes cultratum Baker (1879) - Fidji - Voir genre Didymoglossum subgen. Didymoglossum (synonyme : Microgonium cultratum (Baker) Copel.)
+Trichomanes cumingii (C.Presl) C.Chr. (1905) - Philippines, Moluques - Voir Abrodictyum cumingii C.Presl (synonyme : Trichomanes smithii Hook.)
+Trichomanes cuneatum Christ (1907) - Nouvelle-Calédonie - Voir Hymenophyllum francii (Christ) Ebihara &amp; K.Iwats
+Trichomanes cuneiforme G.Forst. (1786) - Voir Odontosoria chinensis
+Trichomanes cupressifolium Hayata (1914) - Taïwan - Voir Crepidomanes schmidtianum var. latifrons (Bosch) K.Iwats. (synonyme : Trichomanes latifrons Bosch)
+Trichomanes cupressoides Desv. (1827) - Comores, Madagascar, Mascareignes, Séchelles, Queensland. - Voir Abrodictyum cupressoides (Desv.) Ebihara &amp; Dubuisson (synonyme :  Didymoglossum cupressoides Hassk - synonymes possibles signalés par l'IPNI et non retenus : Trichomanes obscurum Blume, Trichomanes setaceum Bosch)
+Trichomanes curtii Rosenst. (1925) - Costa Rica (Amérique centrale et du sud) - Voir Didymoglossum curtii (Rosenst.) Pic.Serm.
+Trichomanes curvatum J.Sm. (1841) - Philippines, Nouvelle-Guinée - Voir Cephalomanes atrovirens (Blume) Bosch (synonyme : Trichomanes javanicum Blume)
+Trichomanes cuspidatum Willd. (1810) - Afrique tropicale, Madagascar - Voir Didymoglossum cuspidatum (Willd.) Ebihara &amp; Dubuisson (synonymes : Hemiphlebium cuspidatum (Willd.) Prantl, Microgonium cuspidatum (Willd.) C.Presl, Trichomanes bojeri Hook. &amp; Grev., Trichomanes adianthinum Bory)
+Trichomanes cuspidatum var. densestriatum C.Chr. (1920) - Madagascar - Voir Didymoglossum cuspidatum var. densestriatum (C.Chr.) J.P.Roux
+Trichomanes cyrtotheca Hillebr. (1888) - Hawaï, Amérique du Nord (États Unis) - Voir Vandenboschia cyrtotheca (Hillber.) Copel.
+Trichomanes cystoseiroides Christ (1934) - Vietnam, Laos - Voir Vandenboschia cystoseiroides (Christ ex Tardieu &amp; C.Chr.) Ching in Chien &amp; Chun
+Trichomanes daucoides C.Presl (1849) - Inde - Voir Abrodictyum rigidum (Sw.) Ebihara &amp; Dubuisson (synonymes : Trichomanes bifidum Vent. ex Willd., Trichomanes daucoides C.Presl, Trichomanes dregei Bosch, Trichomanes firmulum C.Presl, Trichomanes krugii Christ, Trichomanes mandioccanum Raddi, Trichomanes marginatum Mett., Trichomanes rigidum Sw.)
+Trichomanes davallioides Gaudich. (1827) - Hawaï, Fidji, Amérique du Nord (États Unis) - Voir Vandenboschia davallioides (Gaudich.) Copel. (synonyme : Trichomanes sandwicense Bosch)
+Trichomanes debile Bosch (1861) - Venezuela. - Voir Polyphlebium pyxidiferum (L.) Ebihara &amp; Dubuisson. (synonyme : Trichomanes pyxidiferum var. debile (Bosch) Sodiro)
+Trichomanes decurrens (Jacq.) Poir. (1808) - Jamaïque - Voir Hymenophyllum decurrens (Jacq.) Sw. (synonymes : Adiantum decurrens Jacq., Hymenophyllum schomburgkii C.Presl)
+Trichomanes delicatulum Kurz (1870) - Îles Andaman - Voir Didymoglossum motleyi (Bosch) Ebihara &amp; K.Iwats.
+Trichomanes delicatum Bosch (1861) - Équateur - Voir Trichomanes alatum  subsp. delicatum Domin
+Trichomanes demissum G.Forst. (1786) -  - Voir Hymenophyllum demissum (G.Forst.) Sw.
+Trichomanes densinervium Copel. (1911) - Nouvelle-Guinée - Voir  Cephalomanes densinervium (Copel.) Copel.
+Trichomanes dentatum Bosch (1861) - Polynésie - Voir Abrodictyum dentatum (Bosch) Ebihara &amp; K.Iwats. (synonymes : Trichomanes cartilagineum Vieill. &amp; Pancher, Trichomanes platyderon E.Fourn, Trichomanes seemanni Carr.)
+Trichomanes denticulatum (Sw.) Poir. (1808) - Asie tropicale (Chine, Taïlande), Java - Voir Hymenophyllum denticulatum Sw. (synonymes : Didymoglossum denticulatum (Sw.) Hassk., Leptocionium denticulatum (Sw.) Bosch, Meringium denticulatum (Sw.) Copel.
+Trichomanes denticulatum (Burm.f.) Houtt. (1783) - Voir Davallia denticulata (Burm.f.) Mett.
+Trichomanes depauperatum Bory (1828) - Voir Crepidomanes humile (G.Forst.) Bosch (synonyme : Trichomanes humile G.Forst.)
+Trichomanes diaphanum Kunth (1816) - Voir Polyphlebium diaphanum (Kunth) Ebihara &amp; Dubuisson
+Trichomanes diaphanum f. furcata Hahne (1904) - Colombie - Voir Polyphlebium diaphanum (Kunth) Ebihara &amp; Dubuisson
+Trichomanes diaphanum var. eximina (Kunze) Hieron. (1904) - Voir Polyphlebium pyxidiferum (L.) Ebihara &amp; Dubuisson (synonyme : Trichomanes eximium Kunze)
+Trichomanes diaphanum var. lechleri (Bosch) Hieron. (1906) - Voir Polyphlebium diaphanum (Kunth) Ebihara &amp; Dubuisson (synonyme : Trichomanes lechleri Bosch)
+Trichomanes diaphanum var. subalata Rosenst. (1909) - Équateur (Amérique centrale et du sud) - Voir Polyphlebium diaphanum (Kunth) Ebihara &amp; Dubuisson
+Trichomanes dichotomum Kunze (1847) - Java, Îles de la Société - voir genre Hymenophyllum subgen. Sphaerocionium (synonyme : Microtrichomanes dichotomum (Kunze) Copel.)
+Trichomanes dichotomum Phil. (1856) - Voir Polyphlebium philippianum (J.W.Sturm) Ebihara &amp; Dubuisson. Cet homonyme de Trichomanes dichotomum Kunze a été renommé Trichomanes philippianum par J.W.Sturm.
+Trichomanes diffusum Blume (1828) - Java, Philippines - Voir Crepidomanes minutum (Blume) K.Iwats. (synonymes : Gonocormus diffusus (Blume) Bosch, Sphaerocionium diffusum (Blume) Hassk.)
+Trichomanes digitatum Sw. (1806) - Voir Hymenophyllum digitatum (Sw.) Fosberg (synonymes : Microtrichomanes digitatum (Sw.) Copel., Trichomanes blumei Hassk., Trichomanes ampliatum Mett., Trichomanes loreum Bory &amp; Bél., Trichomanes flabellatum Bosch)
+Trichomanes digitatum var. calvescens (Bosch) Domin (1928) - Voir Hymenophyllum digitatum (Sw.) Fosberg (synonyme : Trichomanes calvescens Bosch)
+Trichomanes digitatum var. corticola (Hook. ex Bedd.) Domin (1928) - Voir Hymenophyllum corticola Hook. (synonyme : Tricomanes corticola Bedd.)
+Trichomanes dilatatum G.Forst. (1786) - Voir Hymenophyllum dilatatum (G.Forst.) Sw.
+Trichomanes dilatatum Kuhn (1868) - Voir Crepidomanes bipunctatum (Poir.) Copel (synonymes : Didymoglossum anomalum Bosch, Didymoglossum bipunctatum (Poir.) E.Fourn., Hymenophyllum filicula Bory ex Willd., Taschneria filicula (Bory ex Willd.) C.Presl, Trichomanes bipunctatum Poir., Trichomanes capillatum Taschner, Trichomanes dilatatum Kuhn (non G.Forst.), Trichomanes filicula (Bory ex Willd.) Bory)
+Trichomanes dimidiatum C.Presl (1843) - Voir Vandenboschia auriculata (Blume) Copel. (synonyme : Trichomanes auriculatum Blume)
+Trichomanes dissectum J.Sm. (1841) - Voir Vandenboschia auriculata (Blume) Copel. (synonyme : Trichomanes auriculatum Blume)
+Trichomanes divaricatum Poir. (1808) - Perse - Voir genre Hymenophyllum subgen. Sphaerocionium
+Trichomanes draytonianum Brack. (1854) - Hawaï - Voir Crepidomanes draytonianum (Brack.) Ebihara &amp; K.Iwats.
+Trichomanes dregei Bosch (1859) - Afrique australe - Voir Abrodictyum rigidum (Sw.) Ebihara &amp; Dubuisson (synonymes : Trichomanes bifidum Vent. ex Willd., Trichomanes compressum Desv., Trichomanes daucoides C.Presl, Trichomanes firmulum C.Presl, Trichomanes krugii Christ, Trichomanes mandioccanum Raddi, Trichomanes marginatum Mett., Trichomanes rigidum Sw.)
+Trichomanes dubia (R.Br.) Poir. (1817) - Voir Davalia dubia R.Br.
+Trichomanes ekmanii Wess.Boer (1962) - Amérique tropicale - Voir Didymoglossum ekmanii (Wess.Boer) Ebihara &amp; Dubuisson
+Trichomanes elatum Desv. (1827) - Voir Trichomanes plumosum Kunze
+Trichomanes elatum G.Forst. (1786) - Voir Davallia denticulata (Burm.) Mett.
+Trichomanes elatum Bosch (1861) - Voir Abrodictyum pluma (Hook.) Ebihara &amp; K.Iwats.
+Trichomanes elegans Rudge (1805) - Voir Trichomanes diversifrons (Bory) Mett. ex. Sadeb. - Homonyme de Trichomanes elegans Rich. renommé Hymenostachys elegans C.Presl.
+Trichomanes elegans var. weddellii Hieron. (1904) - Voir Trichomanes weddellii Bosch
+Trichomanes elongatum A.Cunn. (1837) - Nouvelle-Zélande, Nouvelle-Calédonie, Fidji. - Voir Abrodictyum elongatum (A.Cunn.) Ebihara &amp; K.Iwats. (synonyme : Trichomanes polyodon Colenso)
+Trichomanes emarginatum Poir. (1808) - Voir Hymenophyllum dilatatum Sw.
+Trichomanes emarginatum C.Presl (1848) - Brésil - Voir Polyphlebium pyxidiferum (L.) Ebihara &amp; Dubuisson (synonyme : Trichomanes eximium Kunze)
+Trichomanes eminens C.Presl (1843) - Voir Callistopteris apiifolia (C.Presl) Copel. (synonyme : Trichomanes apiifolium C.Presl)
+Trichomanes endlicherianum C.Presl (1848) - Polynésie, Nouvelle-Zélande - Voir Polyphlebium endlicherianum (C.Presl) Ebihara &amp; Dubuisson
+Trichomanes englerianum Brause (1920) - Nouvelle-Guinée - Voir Abrodictyum obscurum (Blume) Ebihara &amp; K.Iwats. (synonyme : Cephalomanes obscurum (Blume) K.Iwats., Selenodesmium obscurum (Blume) Copel., Trichomanes latipinnum Copel., Trichomanes obscurum Blume, Trichomanes papillatum Müll.Berol., Trichomanes racemulosum Bosch)
+Trichomanes epiphyllu</t>
         </is>
       </c>
     </row>
